--- a/Non_Radiative_Loss_Data.xlsx
+++ b/Non_Radiative_Loss_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\austi\Jupyter_Projects\EQE_Analyser_Tool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\austi\Jupyter_Projects\EQE_Analyser_Tool_1.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAF99F4-1E38-4DFF-BBFD-DABF7923317D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC99ED71-261A-4949-A9DF-5185076AF61C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{AB4A54E4-983B-4747-81C9-ED5876AE326F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AB4A54E4-983B-4747-81C9-ED5876AE326F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,13 +41,13 @@
     <t>E_CT (eV)</t>
   </si>
   <si>
-    <t>Lower Limit (Benduhn)</t>
+    <t>Empirical (Benduhn 2017)</t>
   </si>
   <si>
-    <t>Optimistic</t>
+    <t>Lower Limit (Benduhn 2017)</t>
   </si>
   <si>
-    <t>Empirical - Benduhn et al.</t>
+    <t>Optimistic (Azzouzi 2018)</t>
   </si>
 </sst>
 </file>
@@ -403,7 +403,7 @@
   <dimension ref="A1:D171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -418,13 +418,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
